--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Psen1-Notch4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Psen1-Notch4.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.2726235</v>
+        <v>18.2248715</v>
       </c>
       <c r="H2">
-        <v>32.545247</v>
+        <v>36.449743</v>
       </c>
       <c r="I2">
-        <v>0.1150896855633734</v>
+        <v>0.1050100244082758</v>
       </c>
       <c r="J2">
-        <v>0.08350961674642161</v>
+        <v>0.07502966121475142</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>55.87392200000001</v>
+        <v>53.370329</v>
       </c>
       <c r="N2">
-        <v>111.747844</v>
+        <v>106.740658</v>
       </c>
       <c r="O2">
-        <v>0.5825754174893317</v>
+        <v>0.9134833947774216</v>
       </c>
       <c r="P2">
-        <v>0.4843347495294592</v>
+        <v>0.8882691385306266</v>
       </c>
       <c r="Q2">
-        <v>909.2152961743673</v>
+        <v>972.6673879377234</v>
       </c>
       <c r="R2">
-        <v>3636.861184697469</v>
+        <v>3890.669551750894</v>
       </c>
       <c r="S2">
-        <v>0.06704842161579819</v>
+        <v>0.09592491358213166</v>
       </c>
       <c r="T2">
-        <v>0.04044660931017924</v>
+        <v>0.06664653253147201</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.2726235</v>
+        <v>18.2248715</v>
       </c>
       <c r="H3">
-        <v>32.545247</v>
+        <v>36.449743</v>
       </c>
       <c r="I3">
-        <v>0.1150896855633734</v>
+        <v>0.1050100244082758</v>
       </c>
       <c r="J3">
-        <v>0.08350961674642161</v>
+        <v>0.07502966121475142</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>5.230285</v>
       </c>
       <c r="O3">
-        <v>0.01817804179120264</v>
+        <v>0.02984041624484787</v>
       </c>
       <c r="P3">
-        <v>0.02266897225724272</v>
+        <v>0.04352512752188261</v>
       </c>
       <c r="Q3">
-        <v>28.37015286756584</v>
+        <v>31.77375734445917</v>
       </c>
       <c r="R3">
-        <v>170.220917205395</v>
+        <v>190.642544066755</v>
       </c>
       <c r="S3">
-        <v>0.002092105113907373</v>
+        <v>0.003133542838224584</v>
       </c>
       <c r="T3">
-        <v>0.001893077185237604</v>
+        <v>0.003265675572295705</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.2726235</v>
+        <v>18.2248715</v>
       </c>
       <c r="H4">
-        <v>32.545247</v>
+        <v>36.449743</v>
       </c>
       <c r="I4">
-        <v>0.1150896855633734</v>
+        <v>0.1050100244082758</v>
       </c>
       <c r="J4">
-        <v>0.08350961674642161</v>
+        <v>0.07502966121475142</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.001563</v>
+        <v>0.1489076666666667</v>
       </c>
       <c r="N4">
-        <v>3.004688999999999</v>
+        <v>0.446723</v>
       </c>
       <c r="O4">
-        <v>0.0104429036298341</v>
+        <v>0.002548694816085008</v>
       </c>
       <c r="P4">
-        <v>0.01302284896189067</v>
+        <v>0.003717517409081525</v>
       </c>
       <c r="Q4">
-        <v>16.2980576105305</v>
+        <v>2.713823090364833</v>
       </c>
       <c r="R4">
-        <v>97.78834566318299</v>
+        <v>16.282938542189</v>
       </c>
       <c r="S4">
-        <v>0.001201870495126217</v>
+        <v>0.0002676385048463327</v>
       </c>
       <c r="T4">
-        <v>0.001087533125754025</v>
+        <v>0.0002789240717633273</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.2726235</v>
+        <v>18.2248715</v>
       </c>
       <c r="H5">
-        <v>32.545247</v>
+        <v>36.449743</v>
       </c>
       <c r="I5">
-        <v>0.1150896855633734</v>
+        <v>0.1050100244082758</v>
       </c>
       <c r="J5">
-        <v>0.08350961674642161</v>
+        <v>0.07502966121475142</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.127115</v>
+        <v>1.7378505</v>
       </c>
       <c r="N5">
-        <v>2.25423</v>
+        <v>3.475701</v>
       </c>
       <c r="O5">
-        <v>0.01175198497222887</v>
+        <v>0.02974494637939443</v>
       </c>
       <c r="P5">
-        <v>0.009770228071977768</v>
+        <v>0.02892391700508383</v>
       </c>
       <c r="Q5">
-        <v>18.3411180362025</v>
+        <v>31.67210204871075</v>
       </c>
       <c r="R5">
-        <v>73.36447214480999</v>
+        <v>126.688408194843</v>
       </c>
       <c r="S5">
-        <v>0.00135253225519931</v>
+        <v>0.003123517545323063</v>
       </c>
       <c r="T5">
-        <v>0.0008159080018159932</v>
+        <v>0.002170151693895028</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>16.2726235</v>
+        <v>18.2248715</v>
       </c>
       <c r="H6">
-        <v>32.545247</v>
+        <v>36.449743</v>
       </c>
       <c r="I6">
-        <v>0.1150896855633734</v>
+        <v>0.1050100244082758</v>
       </c>
       <c r="J6">
-        <v>0.08350961674642161</v>
+        <v>0.07502966121475142</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>34.797061</v>
+        <v>0.89134</v>
       </c>
       <c r="N6">
-        <v>104.391183</v>
+        <v>2.67402</v>
       </c>
       <c r="O6">
-        <v>0.3628152743506486</v>
+        <v>0.01525612272506147</v>
       </c>
       <c r="P6">
-        <v>0.4524496908538918</v>
+        <v>0.02225252763397492</v>
       </c>
       <c r="Q6">
-        <v>566.2394725595335</v>
+        <v>16.24455696281</v>
       </c>
       <c r="R6">
-        <v>3397.436835357201</v>
+        <v>97.46734177686</v>
       </c>
       <c r="S6">
-        <v>0.04175629584260521</v>
+        <v>0.001602045819734355</v>
       </c>
       <c r="T6">
-        <v>0.03778390028024545</v>
+        <v>0.001669599609549032</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>16.2726235</v>
+        <v>18.2248715</v>
       </c>
       <c r="H7">
-        <v>32.545247</v>
+        <v>36.449743</v>
       </c>
       <c r="I7">
-        <v>0.1150896855633734</v>
+        <v>0.1050100244082758</v>
       </c>
       <c r="J7">
-        <v>0.08350961674642161</v>
+        <v>0.07502966121475142</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.365389333333334</v>
+        <v>0.533212</v>
       </c>
       <c r="N7">
-        <v>4.096168</v>
+        <v>1.599636</v>
       </c>
       <c r="O7">
-        <v>0.014236377766754</v>
+        <v>0.009126425057189708</v>
       </c>
       <c r="P7">
-        <v>0.01775351032553778</v>
+        <v>0.01331177189935046</v>
       </c>
       <c r="Q7">
-        <v>22.21846655224934</v>
+        <v>9.717720182258001</v>
       </c>
       <c r="R7">
-        <v>133.310799313496</v>
+        <v>58.306321093548</v>
       </c>
       <c r="S7">
-        <v>0.001638460240737118</v>
+        <v>0.0009583661180157909</v>
       </c>
       <c r="T7">
-        <v>0.001482588843189299</v>
+        <v>0.0009987777357763129</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>71.79459</v>
       </c>
       <c r="I8">
-        <v>0.169258034068719</v>
+        <v>0.137891263015346</v>
       </c>
       <c r="J8">
-        <v>0.1842216375056694</v>
+        <v>0.147784958723906</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>55.87392200000001</v>
+        <v>53.370329</v>
       </c>
       <c r="N8">
-        <v>111.747844</v>
+        <v>106.740658</v>
       </c>
       <c r="O8">
-        <v>0.5825754174893317</v>
+        <v>0.9134833947774216</v>
       </c>
       <c r="P8">
-        <v>0.4843347495294592</v>
+        <v>0.8882691385306266</v>
       </c>
       <c r="Q8">
-        <v>1337.14844056066</v>
+        <v>1277.23362957337</v>
       </c>
       <c r="R8">
-        <v>8022.890643363961</v>
+        <v>7663.40177744022</v>
       </c>
       <c r="S8">
-        <v>0.09860556986100751</v>
+        <v>0.1259613790494046</v>
       </c>
       <c r="T8">
-        <v>0.08922494065921519</v>
+        <v>0.1312728179734682</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>71.79459</v>
       </c>
       <c r="I9">
-        <v>0.169258034068719</v>
+        <v>0.137891263015346</v>
       </c>
       <c r="J9">
-        <v>0.1842216375056694</v>
+        <v>0.147784958723906</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>5.230285</v>
       </c>
       <c r="O9">
-        <v>0.01817804179120264</v>
+        <v>0.02984041624484787</v>
       </c>
       <c r="P9">
-        <v>0.02266897225724272</v>
+        <v>0.04352512752188261</v>
       </c>
       <c r="Q9">
         <v>41.72290746201666</v>
@@ -1013,10 +1013,10 @@
         <v>375.50616715815</v>
       </c>
       <c r="S9">
-        <v>0.003076779616797974</v>
+        <v>0.004114732684905723</v>
       </c>
       <c r="T9">
-        <v>0.004176115189799844</v>
+        <v>0.006432359174274165</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,40 +1045,40 @@
         <v>71.79459</v>
       </c>
       <c r="I10">
-        <v>0.169258034068719</v>
+        <v>0.137891263015346</v>
       </c>
       <c r="J10">
-        <v>0.1842216375056694</v>
+        <v>0.147784958723906</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>1.001563</v>
+        <v>0.1489076666666667</v>
       </c>
       <c r="N10">
-        <v>3.004688999999999</v>
+        <v>0.446723</v>
       </c>
       <c r="O10">
-        <v>0.0104429036298341</v>
+        <v>0.002548694816085008</v>
       </c>
       <c r="P10">
-        <v>0.01302284896189067</v>
+        <v>0.003717517409081525</v>
       </c>
       <c r="Q10">
-        <v>23.96893498138999</v>
+        <v>3.563588292063333</v>
       </c>
       <c r="R10">
-        <v>215.72041483251</v>
+        <v>32.07229462857</v>
       </c>
       <c r="S10">
-        <v>0.001767545338354809</v>
+        <v>0.0003514427472306269</v>
       </c>
       <c r="T10">
-        <v>0.002399090560748506</v>
+        <v>0.000549393156856515</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>71.79459</v>
       </c>
       <c r="I11">
-        <v>0.169258034068719</v>
+        <v>0.137891263015346</v>
       </c>
       <c r="J11">
-        <v>0.1842216375056694</v>
+        <v>0.147784958723906</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.127115</v>
+        <v>1.7378505</v>
       </c>
       <c r="N11">
-        <v>2.25423</v>
+        <v>3.475701</v>
       </c>
       <c r="O11">
-        <v>0.01175198497222887</v>
+        <v>0.02974494637939443</v>
       </c>
       <c r="P11">
-        <v>0.009770228071977768</v>
+        <v>0.02892391700508383</v>
       </c>
       <c r="Q11">
-        <v>26.97358643595</v>
+        <v>41.58942137626499</v>
       </c>
       <c r="R11">
-        <v>161.8415186157</v>
+        <v>249.53652825759</v>
       </c>
       <c r="S11">
-        <v>0.001989117872804588</v>
+        <v>0.004101568224578442</v>
       </c>
       <c r="T11">
-        <v>0.001799887414223603</v>
+        <v>0.004274519880729996</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>71.79459</v>
       </c>
       <c r="I12">
-        <v>0.169258034068719</v>
+        <v>0.137891263015346</v>
       </c>
       <c r="J12">
-        <v>0.1842216375056694</v>
+        <v>0.147784958723906</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>34.797061</v>
+        <v>0.89134</v>
       </c>
       <c r="N12">
-        <v>104.391183</v>
+        <v>2.67402</v>
       </c>
       <c r="O12">
-        <v>0.3628152743506486</v>
+        <v>0.01525612272506147</v>
       </c>
       <c r="P12">
-        <v>0.4524496908538918</v>
+        <v>0.02225252763397492</v>
       </c>
       <c r="Q12">
-        <v>832.7469092333299</v>
+        <v>21.3311299502</v>
       </c>
       <c r="R12">
-        <v>7494.72218309997</v>
+        <v>191.9801695518</v>
       </c>
       <c r="S12">
-        <v>0.06140940006669371</v>
+        <v>0.002103686031275848</v>
       </c>
       <c r="T12">
-        <v>0.08335102293803782</v>
+        <v>0.00328858887788956</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>71.79459</v>
       </c>
       <c r="I13">
-        <v>0.169258034068719</v>
+        <v>0.137891263015346</v>
       </c>
       <c r="J13">
-        <v>0.1842216375056694</v>
+        <v>0.147784958723906</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.365389333333334</v>
+        <v>0.533212</v>
       </c>
       <c r="N13">
-        <v>4.096168</v>
+        <v>1.599636</v>
       </c>
       <c r="O13">
-        <v>0.014236377766754</v>
+        <v>0.009126425057189708</v>
       </c>
       <c r="P13">
-        <v>0.01775351032553778</v>
+        <v>0.01331177189935046</v>
       </c>
       <c r="Q13">
-        <v>32.67585579234667</v>
+        <v>12.76057897436</v>
       </c>
       <c r="R13">
-        <v>294.08270213112</v>
+        <v>114.84521076924</v>
       </c>
       <c r="S13">
-        <v>0.002409621313060402</v>
+        <v>0.001258454277950791</v>
       </c>
       <c r="T13">
-        <v>0.00327058074364438</v>
+        <v>0.001967279660687559</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>35.08101266666667</v>
+        <v>40.038578</v>
       </c>
       <c r="H14">
-        <v>105.243038</v>
+        <v>120.115734</v>
       </c>
       <c r="I14">
-        <v>0.2481138162541146</v>
+        <v>0.230698584242564</v>
       </c>
       <c r="J14">
-        <v>0.2700488267490822</v>
+        <v>0.2472512036252546</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>55.87392200000001</v>
+        <v>53.370329</v>
       </c>
       <c r="N14">
-        <v>111.747844</v>
+        <v>106.740658</v>
       </c>
       <c r="O14">
-        <v>0.5825754174893317</v>
+        <v>0.9134833947774216</v>
       </c>
       <c r="P14">
-        <v>0.4843347495294592</v>
+        <v>0.8882691385306266</v>
       </c>
       <c r="Q14">
-        <v>1960.113765418346</v>
+        <v>2136.872080552162</v>
       </c>
       <c r="R14">
-        <v>11760.68259251007</v>
+        <v>12821.23248331297</v>
       </c>
       <c r="S14">
-        <v>0.1445450100891121</v>
+        <v>0.2107393259042424</v>
       </c>
       <c r="T14">
-        <v>0.130794030864241</v>
+        <v>0.2196256136448654</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>35.08101266666667</v>
+        <v>40.038578</v>
       </c>
       <c r="H15">
-        <v>105.243038</v>
+        <v>120.115734</v>
       </c>
       <c r="I15">
-        <v>0.2481138162541146</v>
+        <v>0.230698584242564</v>
       </c>
       <c r="J15">
-        <v>0.2700488267490822</v>
+        <v>0.2472512036252546</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>5.230285</v>
       </c>
       <c r="O15">
-        <v>0.01817804179120264</v>
+        <v>0.02984041624484787</v>
       </c>
       <c r="P15">
-        <v>0.02266897225724272</v>
+        <v>0.04352512752188261</v>
       </c>
       <c r="Q15">
-        <v>61.16123144509223</v>
+        <v>69.80439131157667</v>
       </c>
       <c r="R15">
-        <v>550.4510830058301</v>
+        <v>628.2395218041901</v>
       </c>
       <c r="S15">
-        <v>0.004510223320842067</v>
+        <v>0.006884141780895212</v>
       </c>
       <c r="T15">
-        <v>0.00612172936167589</v>
+        <v>0.01076164016772817</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>35.08101266666667</v>
+        <v>40.038578</v>
       </c>
       <c r="H16">
-        <v>105.243038</v>
+        <v>120.115734</v>
       </c>
       <c r="I16">
-        <v>0.2481138162541146</v>
+        <v>0.230698584242564</v>
       </c>
       <c r="J16">
-        <v>0.2700488267490822</v>
+        <v>0.2472512036252546</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>1.001563</v>
+        <v>0.1489076666666667</v>
       </c>
       <c r="N16">
-        <v>3.004688999999999</v>
+        <v>0.446723</v>
       </c>
       <c r="O16">
-        <v>0.0104429036298341</v>
+        <v>0.002548694816085008</v>
       </c>
       <c r="P16">
-        <v>0.01302284896189067</v>
+        <v>0.003717517409081525</v>
       </c>
       <c r="Q16">
-        <v>35.13584428946466</v>
+        <v>5.962051226631333</v>
       </c>
       <c r="R16">
-        <v>316.222598605182</v>
+        <v>53.658461039682</v>
       </c>
       <c r="S16">
-        <v>0.002591028672372084</v>
+        <v>0.0005879802857371734</v>
       </c>
       <c r="T16">
-        <v>0.003516805083089079</v>
+        <v>0.000919160653893245</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>35.08101266666667</v>
+        <v>40.038578</v>
       </c>
       <c r="H17">
-        <v>105.243038</v>
+        <v>120.115734</v>
       </c>
       <c r="I17">
-        <v>0.2481138162541146</v>
+        <v>0.230698584242564</v>
       </c>
       <c r="J17">
-        <v>0.2700488267490822</v>
+        <v>0.2472512036252546</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.127115</v>
+        <v>1.7378505</v>
       </c>
       <c r="N17">
-        <v>2.25423</v>
+        <v>3.475701</v>
       </c>
       <c r="O17">
-        <v>0.01175198497222887</v>
+        <v>0.02974494637939443</v>
       </c>
       <c r="P17">
-        <v>0.009770228071977768</v>
+        <v>0.02892391700508383</v>
       </c>
       <c r="Q17">
-        <v>39.54033559179</v>
+        <v>69.58106279658899</v>
       </c>
       <c r="R17">
-        <v>237.24201355074</v>
+        <v>417.486376779534</v>
       </c>
       <c r="S17">
-        <v>0.002915829840020709</v>
+        <v>0.006862117018097275</v>
       </c>
       <c r="T17">
-        <v>0.002638438627908544</v>
+        <v>0.007151473293063947</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>35.08101266666667</v>
+        <v>40.038578</v>
       </c>
       <c r="H18">
-        <v>105.243038</v>
+        <v>120.115734</v>
       </c>
       <c r="I18">
-        <v>0.2481138162541146</v>
+        <v>0.230698584242564</v>
       </c>
       <c r="J18">
-        <v>0.2700488267490822</v>
+        <v>0.2472512036252546</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>34.797061</v>
+        <v>0.89134</v>
       </c>
       <c r="N18">
-        <v>104.391183</v>
+        <v>2.67402</v>
       </c>
       <c r="O18">
-        <v>0.3628152743506486</v>
+        <v>0.01525612272506147</v>
       </c>
       <c r="P18">
-        <v>0.4524496908538918</v>
+        <v>0.02225252763397492</v>
       </c>
       <c r="Q18">
-        <v>1220.716137703773</v>
+        <v>35.68798611452</v>
       </c>
       <c r="R18">
-        <v>10986.44523933395</v>
+        <v>321.19187503068</v>
       </c>
       <c r="S18">
-        <v>0.090019482314423</v>
+        <v>0.003519565913702488</v>
       </c>
       <c r="T18">
-        <v>0.1221835081780784</v>
+        <v>0.005501964241204539</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>35.08101266666667</v>
+        <v>40.038578</v>
       </c>
       <c r="H19">
-        <v>105.243038</v>
+        <v>120.115734</v>
       </c>
       <c r="I19">
-        <v>0.2481138162541146</v>
+        <v>0.230698584242564</v>
       </c>
       <c r="J19">
-        <v>0.2700488267490822</v>
+        <v>0.2472512036252546</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.365389333333334</v>
+        <v>0.533212</v>
       </c>
       <c r="N19">
-        <v>4.096168</v>
+        <v>1.599636</v>
       </c>
       <c r="O19">
-        <v>0.014236377766754</v>
+        <v>0.009126425057189708</v>
       </c>
       <c r="P19">
-        <v>0.01775351032553778</v>
+        <v>0.01331177189935046</v>
       </c>
       <c r="Q19">
-        <v>47.89924049759824</v>
+        <v>21.349050252536</v>
       </c>
       <c r="R19">
-        <v>431.0931644783841</v>
+        <v>192.141452272824</v>
       </c>
       <c r="S19">
-        <v>0.003532242017344563</v>
+        <v>0.002105453339889527</v>
       </c>
       <c r="T19">
-        <v>0.004794314634089195</v>
+        <v>0.003291351624499242</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>18.181244</v>
+        <v>16.631589</v>
       </c>
       <c r="H20">
-        <v>36.362488</v>
+        <v>33.263178</v>
       </c>
       <c r="I20">
-        <v>0.1285885865368279</v>
+        <v>0.09582967796718955</v>
       </c>
       <c r="J20">
-        <v>0.09330448273526253</v>
+        <v>0.06847030378968577</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>55.87392200000001</v>
+        <v>53.370329</v>
       </c>
       <c r="N20">
-        <v>111.747844</v>
+        <v>106.740658</v>
       </c>
       <c r="O20">
-        <v>0.5825754174893317</v>
+        <v>0.9134833947774216</v>
       </c>
       <c r="P20">
-        <v>0.4843347495294592</v>
+        <v>0.8882691385306266</v>
       </c>
       <c r="Q20">
-        <v>1015.857409118968</v>
+        <v>887.6333767227809</v>
       </c>
       <c r="R20">
-        <v>4063.429636475872</v>
+        <v>3550.533506891124</v>
       </c>
       <c r="S20">
-        <v>0.07491254948605557</v>
+        <v>0.0875388195498954</v>
       </c>
       <c r="T20">
-        <v>0.04519060327555912</v>
+        <v>0.06082005776219448</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>18.181244</v>
+        <v>16.631589</v>
       </c>
       <c r="H21">
-        <v>36.362488</v>
+        <v>33.263178</v>
       </c>
       <c r="I21">
-        <v>0.1285885865368279</v>
+        <v>0.09582967796718955</v>
       </c>
       <c r="J21">
-        <v>0.09330448273526253</v>
+        <v>0.06847030378968577</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>5.230285</v>
       </c>
       <c r="O21">
-        <v>0.01817804179120264</v>
+        <v>0.02984041624484787</v>
       </c>
       <c r="P21">
-        <v>0.02266897225724272</v>
+        <v>0.04352512752188261</v>
       </c>
       <c r="Q21">
-        <v>31.69769592484667</v>
+        <v>28.995983490955</v>
       </c>
       <c r="R21">
-        <v>190.18617554908</v>
+        <v>173.97590094573</v>
       </c>
       <c r="S21">
-        <v>0.002337488699938134</v>
+        <v>0.002859597479150663</v>
       </c>
       <c r="T21">
-        <v>0.002115116730602048</v>
+        <v>0.002980178703908115</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>18.181244</v>
+        <v>16.631589</v>
       </c>
       <c r="H22">
-        <v>36.362488</v>
+        <v>33.263178</v>
       </c>
       <c r="I22">
-        <v>0.1285885865368279</v>
+        <v>0.09582967796718955</v>
       </c>
       <c r="J22">
-        <v>0.09330448273526253</v>
+        <v>0.06847030378968577</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>1.001563</v>
+        <v>0.1489076666666667</v>
       </c>
       <c r="N22">
-        <v>3.004688999999999</v>
+        <v>0.446723</v>
       </c>
       <c r="O22">
-        <v>0.0104429036298341</v>
+        <v>0.002548694816085008</v>
       </c>
       <c r="P22">
-        <v>0.01302284896189067</v>
+        <v>0.003717517409081525</v>
       </c>
       <c r="Q22">
-        <v>18.209661284372</v>
+        <v>2.476571110949</v>
       </c>
       <c r="R22">
-        <v>109.257967706232</v>
+        <v>14.859426665694</v>
       </c>
       <c r="S22">
-        <v>0.001342838217100676</v>
+        <v>0.0002442406034620717</v>
       </c>
       <c r="T22">
-        <v>0.00121509018612866</v>
+        <v>0.0002545395463432576</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>18.181244</v>
+        <v>16.631589</v>
       </c>
       <c r="H23">
-        <v>36.362488</v>
+        <v>33.263178</v>
       </c>
       <c r="I23">
-        <v>0.1285885865368279</v>
+        <v>0.09582967796718955</v>
       </c>
       <c r="J23">
-        <v>0.09330448273526253</v>
+        <v>0.06847030378968577</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.127115</v>
+        <v>1.7378505</v>
       </c>
       <c r="N23">
-        <v>2.25423</v>
+        <v>3.475701</v>
       </c>
       <c r="O23">
-        <v>0.01175198497222887</v>
+        <v>0.02974494637939443</v>
       </c>
       <c r="P23">
-        <v>0.009770228071977768</v>
+        <v>0.02892391700508383</v>
       </c>
       <c r="Q23">
-        <v>20.49235283106</v>
+        <v>28.9032152594445</v>
       </c>
       <c r="R23">
-        <v>81.96941132423999</v>
+        <v>115.612861037778</v>
       </c>
       <c r="S23">
-        <v>0.001511171136580953</v>
+        <v>0.002850448632688689</v>
       </c>
       <c r="T23">
-        <v>0.000911606076461427</v>
+        <v>0.001980429384125748</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>18.181244</v>
+        <v>16.631589</v>
       </c>
       <c r="H24">
-        <v>36.362488</v>
+        <v>33.263178</v>
       </c>
       <c r="I24">
-        <v>0.1285885865368279</v>
+        <v>0.09582967796718955</v>
       </c>
       <c r="J24">
-        <v>0.09330448273526253</v>
+        <v>0.06847030378968577</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>34.797061</v>
+        <v>0.89134</v>
       </c>
       <c r="N24">
-        <v>104.391183</v>
+        <v>2.67402</v>
       </c>
       <c r="O24">
-        <v>0.3628152743506486</v>
+        <v>0.01525612272506147</v>
       </c>
       <c r="P24">
-        <v>0.4524496908538918</v>
+        <v>0.02225252763397492</v>
       </c>
       <c r="Q24">
-        <v>632.653856523884</v>
+        <v>14.82440053926</v>
       </c>
       <c r="R24">
-        <v>3795.923139143304</v>
+        <v>88.94640323556</v>
       </c>
       <c r="S24">
-        <v>0.04665390330272133</v>
+        <v>0.001461989327770563</v>
       </c>
       <c r="T24">
-        <v>0.04221558436885182</v>
+        <v>0.00152363732718664</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>18.181244</v>
+        <v>16.631589</v>
       </c>
       <c r="H25">
-        <v>36.362488</v>
+        <v>33.263178</v>
       </c>
       <c r="I25">
-        <v>0.1285885865368279</v>
+        <v>0.09582967796718955</v>
       </c>
       <c r="J25">
-        <v>0.09330448273526253</v>
+        <v>0.06847030378968577</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.365389333333334</v>
+        <v>0.533212</v>
       </c>
       <c r="N25">
-        <v>4.096168</v>
+        <v>1.599636</v>
       </c>
       <c r="O25">
-        <v>0.014236377766754</v>
+        <v>0.009126425057189708</v>
       </c>
       <c r="P25">
-        <v>0.01775351032553778</v>
+        <v>0.01331177189935046</v>
       </c>
       <c r="Q25">
-        <v>24.82447662433067</v>
+        <v>8.868162833867999</v>
       </c>
       <c r="R25">
-        <v>148.946859745984</v>
+        <v>53.208977003208</v>
       </c>
       <c r="S25">
-        <v>0.001830635694431219</v>
+        <v>0.0008745823742221792</v>
       </c>
       <c r="T25">
-        <v>0.001656482097659445</v>
+        <v>0.0009114610659275281</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>10.13617966666667</v>
+        <v>40.65061833333333</v>
       </c>
       <c r="H26">
-        <v>30.408539</v>
+        <v>121.951855</v>
       </c>
       <c r="I26">
-        <v>0.07168909983387288</v>
+        <v>0.2342251040505189</v>
       </c>
       <c r="J26">
-        <v>0.07802692164876225</v>
+        <v>0.251030751167724</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>55.87392200000001</v>
+        <v>53.370329</v>
       </c>
       <c r="N26">
-        <v>111.747844</v>
+        <v>106.740658</v>
       </c>
       <c r="O26">
-        <v>0.5825754174893317</v>
+        <v>0.9134833947774216</v>
       </c>
       <c r="P26">
-        <v>0.4843347495294592</v>
+        <v>0.8882691385306266</v>
       </c>
       <c r="Q26">
-        <v>566.3481120733195</v>
+        <v>2169.536874503432</v>
       </c>
       <c r="R26">
-        <v>3398.088672439917</v>
+        <v>13017.22124702059</v>
       </c>
       <c r="S26">
-        <v>0.04176430726515287</v>
+        <v>0.2139607431901628</v>
       </c>
       <c r="T26">
-        <v>0.037791149553308</v>
+        <v>0.2229828690844503</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>10.13617966666667</v>
+        <v>40.65061833333333</v>
       </c>
       <c r="H27">
-        <v>30.408539</v>
+        <v>121.951855</v>
       </c>
       <c r="I27">
-        <v>0.07168909983387288</v>
+        <v>0.2342251040505189</v>
       </c>
       <c r="J27">
-        <v>0.07802692164876225</v>
+        <v>0.251030751167724</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>5.230285</v>
       </c>
       <c r="O27">
-        <v>0.01817804179120264</v>
+        <v>0.02984041624484787</v>
       </c>
       <c r="P27">
-        <v>0.02266897225724272</v>
+        <v>0.04352512752188261</v>
       </c>
       <c r="Q27">
-        <v>17.67170282262389</v>
+        <v>70.87143976985278</v>
       </c>
       <c r="R27">
-        <v>159.045325403615</v>
+        <v>637.842957928675</v>
       </c>
       <c r="S27">
-        <v>0.001303167452753839</v>
+        <v>0.006989374599860288</v>
       </c>
       <c r="T27">
-        <v>0.001768790122173843</v>
+        <v>0.01092614545648917</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,46 +2155,46 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>10.13617966666667</v>
+        <v>40.65061833333333</v>
       </c>
       <c r="H28">
-        <v>30.408539</v>
+        <v>121.951855</v>
       </c>
       <c r="I28">
-        <v>0.07168909983387288</v>
+        <v>0.2342251040505189</v>
       </c>
       <c r="J28">
-        <v>0.07802692164876225</v>
+        <v>0.251030751167724</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>1.001563</v>
+        <v>0.1489076666666667</v>
       </c>
       <c r="N28">
-        <v>3.004688999999999</v>
+        <v>0.446723</v>
       </c>
       <c r="O28">
-        <v>0.0104429036298341</v>
+        <v>0.002548694816085008</v>
       </c>
       <c r="P28">
-        <v>0.01302284896189067</v>
+        <v>0.003717517409081525</v>
       </c>
       <c r="Q28">
-        <v>10.15202251548567</v>
+        <v>6.053188724573888</v>
       </c>
       <c r="R28">
-        <v>91.36820263937099</v>
+        <v>54.47869852116499</v>
       </c>
       <c r="S28">
-        <v>0.0007486423608746903</v>
+        <v>0.0005969683084905291</v>
       </c>
       <c r="T28">
-        <v>0.001016132815593108</v>
+        <v>0.0009332111876808263</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>10.13617966666667</v>
+        <v>40.65061833333333</v>
       </c>
       <c r="H29">
-        <v>30.408539</v>
+        <v>121.951855</v>
       </c>
       <c r="I29">
-        <v>0.07168909983387288</v>
+        <v>0.2342251040505189</v>
       </c>
       <c r="J29">
-        <v>0.07802692164876225</v>
+        <v>0.251030751167724</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.127115</v>
+        <v>1.7378505</v>
       </c>
       <c r="N29">
-        <v>2.25423</v>
+        <v>3.475701</v>
       </c>
       <c r="O29">
-        <v>0.01175198497222887</v>
+        <v>0.02974494637939443</v>
       </c>
       <c r="P29">
-        <v>0.009770228071977768</v>
+        <v>0.02892391700508383</v>
       </c>
       <c r="Q29">
-        <v>11.424640144995</v>
+        <v>70.64469739589249</v>
       </c>
       <c r="R29">
-        <v>68.54784086997</v>
+        <v>423.868184375355</v>
       </c>
       <c r="S29">
-        <v>0.0008424892239202892</v>
+        <v>0.006967013160690766</v>
       </c>
       <c r="T29">
-        <v>0.0007623408202627467</v>
+        <v>0.0072607926124991</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>10.13617966666667</v>
+        <v>40.65061833333333</v>
       </c>
       <c r="H30">
-        <v>30.408539</v>
+        <v>121.951855</v>
       </c>
       <c r="I30">
-        <v>0.07168909983387288</v>
+        <v>0.2342251040505189</v>
       </c>
       <c r="J30">
-        <v>0.07802692164876225</v>
+        <v>0.251030751167724</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>34.797061</v>
+        <v>0.89134</v>
       </c>
       <c r="N30">
-        <v>104.391183</v>
+        <v>2.67402</v>
       </c>
       <c r="O30">
-        <v>0.3628152743506486</v>
+        <v>0.01525612272506147</v>
       </c>
       <c r="P30">
-        <v>0.4524496908538918</v>
+        <v>0.02225252763397492</v>
       </c>
       <c r="Q30">
-        <v>352.7092621679597</v>
+        <v>36.23352214523334</v>
       </c>
       <c r="R30">
-        <v>3174.383359511638</v>
+        <v>326.1016993071</v>
       </c>
       <c r="S30">
-        <v>0.02600990042417763</v>
+        <v>0.003573366932685008</v>
       </c>
       <c r="T30">
-        <v>0.03530325657826332</v>
+        <v>0.00558606872733726</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>10.13617966666667</v>
+        <v>40.65061833333333</v>
       </c>
       <c r="H31">
-        <v>30.408539</v>
+        <v>121.951855</v>
       </c>
       <c r="I31">
-        <v>0.07168909983387288</v>
+        <v>0.2342251040505189</v>
       </c>
       <c r="J31">
-        <v>0.07802692164876225</v>
+        <v>0.251030751167724</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>1.365389333333334</v>
+        <v>0.533212</v>
       </c>
       <c r="N31">
-        <v>4.096168</v>
+        <v>1.599636</v>
       </c>
       <c r="O31">
-        <v>0.014236377766754</v>
+        <v>0.009126425057189708</v>
       </c>
       <c r="P31">
-        <v>0.01775351032553778</v>
+        <v>0.01331177189935046</v>
       </c>
       <c r="Q31">
-        <v>13.83983159761689</v>
+        <v>21.67539750275333</v>
       </c>
       <c r="R31">
-        <v>124.558484378552</v>
+        <v>195.07857752478</v>
       </c>
       <c r="S31">
-        <v>0.001020593106993555</v>
+        <v>0.002137637858629522</v>
       </c>
       <c r="T31">
-        <v>0.001385251759161228</v>
+        <v>0.003341664099267345</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>37.788217</v>
+        <v>34.07644866666666</v>
       </c>
       <c r="H32">
-        <v>113.364651</v>
+        <v>102.229346</v>
       </c>
       <c r="I32">
-        <v>0.2672607777430924</v>
+        <v>0.1963453463161056</v>
       </c>
       <c r="J32">
-        <v>0.290888514614802</v>
+        <v>0.2104331214786783</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>55.87392200000001</v>
+        <v>53.370329</v>
       </c>
       <c r="N32">
-        <v>111.747844</v>
+        <v>106.740658</v>
       </c>
       <c r="O32">
-        <v>0.5825754174893317</v>
+        <v>0.9134833947774216</v>
       </c>
       <c r="P32">
-        <v>0.4843347495294592</v>
+        <v>0.8882691385306266</v>
       </c>
       <c r="Q32">
-        <v>2111.375889177074</v>
+        <v>1818.671276491611</v>
       </c>
       <c r="R32">
-        <v>12668.25533506245</v>
+        <v>10912.02765894967</v>
       </c>
       <c r="S32">
-        <v>0.1556995591722055</v>
+        <v>0.1793582135015847</v>
       </c>
       <c r="T32">
-        <v>0.1408874158669566</v>
+        <v>0.1869212475341762</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>37.788217</v>
+        <v>34.07644866666666</v>
       </c>
       <c r="H33">
-        <v>113.364651</v>
+        <v>102.229346</v>
       </c>
       <c r="I33">
-        <v>0.2672607777430924</v>
+        <v>0.1963453463161056</v>
       </c>
       <c r="J33">
-        <v>0.290888514614802</v>
+        <v>0.2104331214786783</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>5.230285</v>
       </c>
       <c r="O33">
-        <v>0.01817804179120264</v>
+        <v>0.02984041624484787</v>
       </c>
       <c r="P33">
-        <v>0.02266897225724272</v>
+        <v>0.04352512752188261</v>
       </c>
       <c r="Q33">
-        <v>65.88104818394834</v>
+        <v>59.40984610484555</v>
       </c>
       <c r="R33">
-        <v>592.929433655535</v>
+        <v>534.68861494361</v>
       </c>
       <c r="S33">
-        <v>0.004858277586963253</v>
+        <v>0.0058590268618114</v>
       </c>
       <c r="T33">
-        <v>0.006594143667753491</v>
+        <v>0.009159128447187286</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,46 +2527,46 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>37.788217</v>
+        <v>34.07644866666666</v>
       </c>
       <c r="H34">
-        <v>113.364651</v>
+        <v>102.229346</v>
       </c>
       <c r="I34">
-        <v>0.2672607777430924</v>
+        <v>0.1963453463161056</v>
       </c>
       <c r="J34">
-        <v>0.290888514614802</v>
+        <v>0.2104331214786783</v>
       </c>
       <c r="K34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L34">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M34">
-        <v>1.001563</v>
+        <v>0.1489076666666667</v>
       </c>
       <c r="N34">
-        <v>3.004688999999999</v>
+        <v>0.446723</v>
       </c>
       <c r="O34">
-        <v>0.0104429036298341</v>
+        <v>0.002548694816085008</v>
       </c>
       <c r="P34">
-        <v>0.01302284896189067</v>
+        <v>0.003717517409081525</v>
       </c>
       <c r="Q34">
-        <v>37.84727998317099</v>
+        <v>5.074244459239777</v>
       </c>
       <c r="R34">
-        <v>340.6255198485389</v>
+        <v>45.668200133158</v>
       </c>
       <c r="S34">
-        <v>0.002790978546005624</v>
+        <v>0.000500424366318274</v>
       </c>
       <c r="T34">
-        <v>0.003788197190577294</v>
+        <v>0.0007822887925443538</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>37.788217</v>
+        <v>34.07644866666666</v>
       </c>
       <c r="H35">
-        <v>113.364651</v>
+        <v>102.229346</v>
       </c>
       <c r="I35">
-        <v>0.2672607777430924</v>
+        <v>0.1963453463161056</v>
       </c>
       <c r="J35">
-        <v>0.290888514614802</v>
+        <v>0.2104331214786783</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.127115</v>
+        <v>1.7378505</v>
       </c>
       <c r="N35">
-        <v>2.25423</v>
+        <v>3.475701</v>
       </c>
       <c r="O35">
-        <v>0.01175198497222887</v>
+        <v>0.02974494637939443</v>
       </c>
       <c r="P35">
-        <v>0.009770228071977768</v>
+        <v>0.02892391700508383</v>
       </c>
       <c r="Q35">
-        <v>42.591666203955</v>
+        <v>59.21977335359099</v>
       </c>
       <c r="R35">
-        <v>255.54999722373</v>
+        <v>355.318640121546</v>
       </c>
       <c r="S35">
-        <v>0.003140844643703021</v>
+        <v>0.005840281798016191</v>
       </c>
       <c r="T35">
-        <v>0.002842047131305454</v>
+        <v>0.006086550140770014</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>37.788217</v>
+        <v>34.07644866666666</v>
       </c>
       <c r="H36">
-        <v>113.364651</v>
+        <v>102.229346</v>
       </c>
       <c r="I36">
-        <v>0.2672607777430924</v>
+        <v>0.1963453463161056</v>
       </c>
       <c r="J36">
-        <v>0.290888514614802</v>
+        <v>0.2104331214786783</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>34.797061</v>
+        <v>0.89134</v>
       </c>
       <c r="N36">
-        <v>104.391183</v>
+        <v>2.67402</v>
       </c>
       <c r="O36">
-        <v>0.3628152743506486</v>
+        <v>0.01525612272506147</v>
       </c>
       <c r="P36">
-        <v>0.4524496908538918</v>
+        <v>0.02225252763397492</v>
       </c>
       <c r="Q36">
-        <v>1314.918892030237</v>
+        <v>30.37370175454667</v>
       </c>
       <c r="R36">
-        <v>11834.27002827213</v>
+        <v>273.36331579092</v>
       </c>
       <c r="S36">
-        <v>0.09696629240002777</v>
+        <v>0.002995468699893203</v>
       </c>
       <c r="T36">
-        <v>0.131612418510415</v>
+        <v>0.004682668850807889</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>37.788217</v>
+        <v>34.07644866666666</v>
       </c>
       <c r="H37">
-        <v>113.364651</v>
+        <v>102.229346</v>
       </c>
       <c r="I37">
-        <v>0.2672607777430924</v>
+        <v>0.1963453463161056</v>
       </c>
       <c r="J37">
-        <v>0.290888514614802</v>
+        <v>0.2104331214786783</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>1.365389333333334</v>
+        <v>0.533212</v>
       </c>
       <c r="N37">
-        <v>4.096168</v>
+        <v>1.599636</v>
       </c>
       <c r="O37">
-        <v>0.014236377766754</v>
+        <v>0.009126425057189708</v>
       </c>
       <c r="P37">
-        <v>0.01775351032553778</v>
+        <v>0.01331177189935046</v>
       </c>
       <c r="Q37">
-        <v>51.59562841748534</v>
+        <v>18.16997134645067</v>
       </c>
       <c r="R37">
-        <v>464.3606557573681</v>
+        <v>163.529742118056</v>
       </c>
       <c r="S37">
-        <v>0.003804825394187142</v>
+        <v>0.001791931088481897</v>
       </c>
       <c r="T37">
-        <v>0.005164292247794237</v>
+        <v>0.002801237713192471</v>
       </c>
     </row>
   </sheetData>
